--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicapereira/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PUC-Rio\Princípios Eng. de Software\INF1629---PRINCIPIOS-ENG-DE-SOFTWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA46AD-078F-DE4E-A90D-83E8B60A3065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A784694-792F-4AB7-A680-2888870563D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agendamento de Tarefas" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>SEMANA DE</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Testes e prototipação</t>
+  </si>
+  <si>
+    <t>Reunião com equipe completa para definição do escopo do projeto.</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="5"/>
@@ -302,6 +308,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS (Corpo)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -703,7 +717,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -798,6 +812,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,7 +873,57 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="5" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <name val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1061,9 +1134,9 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Agenda" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstColumn" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1078,13 +1151,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AgendamentoDeTarefas" displayName="AgendamentoDeTarefas" ref="B5:E10" headerRowDxfId="6">
-  <autoFilter ref="B5:E10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AgendamentoDeTarefas" displayName="AgendamentoDeTarefas" ref="B5:F10" headerRowDxfId="8">
+  <autoFilter ref="B5:F10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAREFA" totalsRowLabel="Total"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DATA DE INICIO" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DATA DE FIM" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DATA DE INICIO" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DATA DE FIM" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E2662053-E8C9-4923-B36B-3EB67FF8086C}" name="Coluna1" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Agenda" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1304,20 +1378,20 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="5" width="17.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6" ht="35.1" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1399,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1345,7 +1419,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="4" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
@@ -1369,7 +1443,9 @@
       <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="B6" s="3" t="s">
@@ -1384,6 +1460,7 @@
       <c r="E6" s="7">
         <v>43963</v>
       </c>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -1398,6 +1475,7 @@
       <c r="E7" s="7">
         <v>43963</v>
       </c>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="B8" s="3" t="s">
@@ -1406,18 +1484,30 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="35" customHeight="1">
+      <c r="D8" s="7">
+        <v>43972</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43972</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="35.1" customHeight="1">
       <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="7">
+        <v>43972</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43972</v>
+      </c>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="B10" s="3" t="s">
@@ -1426,10 +1516,15 @@
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+      <c r="D10" s="7">
+        <v>43972</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43972</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -1449,7 +1544,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="16" t="s">
         <v>15</v>
@@ -1484,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="27">
-        <v>43962</v>
+        <v>43972</v>
       </c>
       <c r="E15" s="28">
-        <v>43963</v>
+        <v>43976</v>
       </c>
       <c r="F15" s="22"/>
     </row>
@@ -1500,11 +1595,9 @@
         <v>8</v>
       </c>
       <c r="D16" s="27">
-        <v>43962</v>
-      </c>
-      <c r="E16" s="28">
-        <v>43963</v>
-      </c>
+        <v>43972</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" s="24" customFormat="1" ht="30" customHeight="1">
@@ -1589,7 +1682,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="24" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
         <v>0</v>
@@ -1609,7 +1702,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="16" t="s">
         <v>23</v>
@@ -1671,7 +1764,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="31" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
         <v>0</v>
@@ -1691,7 +1784,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" ht="23" customHeight="1">
+    <row r="33" spans="1:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="16" t="s">
         <v>30</v>
